--- a/test_cases/PE-53/TC-19-Edad.xlsx
+++ b/test_cases/PE-53/TC-19-Edad.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Desktop\casos de prueba\PE-53\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Documents\GitHub\TestingAplicaciones-Alvinylasardillas-TPO\test_cases\PE-53\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65F8350-C018-456B-BC75-3FCE0FB8153E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179CD28D-184F-40C8-BD79-CC4B0AF639D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Verificacion de Modificacion de Datos: Edad</t>
+  </si>
+  <si>
+    <t>click in your profile</t>
+  </si>
+  <si>
+    <t>click in edit profile</t>
   </si>
 </sst>
 </file>
@@ -517,7 +523,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -610,99 +616,89 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -988,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1004,8 +1000,8 @@
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -1093,7 +1089,9 @@
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D10" s="3">
         <v>3</v>
       </c>
@@ -1101,29 +1099,28 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D12" s="55"/>
-      <c r="E12" s="57"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="33"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D13" s="55"/>
-      <c r="E13" s="58"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D14" s="55"/>
-      <c r="E14" s="58"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D15" s="55"/>
-      <c r="E15" s="58"/>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D16" s="22"/>
@@ -1138,28 +1135,28 @@
       <c r="A19" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="31"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:5" ht="24" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="14" t="s">
         <v>14</v>
       </c>
@@ -1171,133 +1168,121 @@
       <c r="A23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48" t="s">
+      <c r="C23" s="55"/>
+      <c r="D23" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="49"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>1</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="32" t="s">
+      <c r="C24" s="59"/>
+      <c r="D24" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="33"/>
+      <c r="E24" s="59"/>
     </row>
     <row r="25" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>2</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="32" t="s">
+      <c r="C25" s="39"/>
+      <c r="D25" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="33"/>
+      <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>3</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="36" t="s">
+      <c r="C26" s="45"/>
+      <c r="D26" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="36"/>
+      <c r="E26" s="43"/>
     </row>
     <row r="27" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>4</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="32" t="s">
+      <c r="C27" s="39"/>
+      <c r="D27" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="33"/>
+      <c r="E27" s="59"/>
     </row>
     <row r="28" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>5</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="36" t="s">
+      <c r="C28" s="45"/>
+      <c r="D28" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="43"/>
     </row>
     <row r="29" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="59"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="62"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="A30" s="35"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
     </row>
     <row r="31" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="63"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
+      <c r="A31" s="23"/>
     </row>
     <row r="32" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="63"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
+      <c r="A32" s="23"/>
     </row>
     <row r="33" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="63"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
+      <c r="A33" s="23"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="23"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
     </row>
     <row r="37" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1305,24 +1290,16 @@
     <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
     </row>
     <row r="43" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D33:E33"/>
@@ -1339,7 +1316,15 @@
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
